--- a/medicine/Enfance/Eloise_Jarvis_McGraw/Eloise_Jarvis_McGraw.xlsx
+++ b/medicine/Enfance/Eloise_Jarvis_McGraw/Eloise_Jarvis_McGraw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eloise Jarvis McGraw, née le 9 décembre 1915 à Houston au Texas et morte le 30 novembre 2000 (à 84 ans), est un auteur américain de livres pour enfants. Elle a reçu la médaille Newbery trois fois sur trois décennies différentes, successivement pour ses romans Moccasin Trail (1952), The Golden Goblet (1962), et The Moorchild (1997). Elle a également reçu le prix Edgar-Allan-Poe pour A Really Weird Summer (1977). McGraw est particulièrement intéressée par l'histoire[réf. nécessaire], et parmi les nombreux livres au'elle a écrit, on compte : Greensleeves, Pharaoh, The Seventeenth Swap, et Mara, Daughter of the Nile.
 McGraw a aussi contribué aussi à développer la série des romans portant sur le pays d'Oz, initiée par L. Frank Baum, écrivant avec sa fille Lauren Lynn McGraw Merry les romans Go Round in Oz et The Forbidden Fountain of Oz, et plus tard écrivant The Rundlestone of Oz on her own.
